--- a/employment_rates/IL/IL_county_data.xlsx
+++ b/employment_rates/IL/IL_county_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/employment_rates/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08AD34A0-76B9-144F-8D6E-0ED543023CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F08403-ED34-8641-AC82-88F34F790DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="580" windowWidth="24860" windowHeight="13300"/>
+    <workbookView xWindow="660" yWindow="580" windowWidth="15480" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="217">
   <si>
     <t>COUNTIES, CITIES, LOCAL WORKFORCE AREAS AND ECONOMIC DEVELOPMENT REGIONS   - NOT SEASONALLY ADJUSTED</t>
   </si>
@@ -683,9 +683,6 @@
   </si>
   <si>
     <t>2020 YEAR TO DATE ESTIMATES FOR THE STATE, METROPOLITAN AREAS, MICROPOLITAN AREAS, COMBINED STATISTICAL AREAS</t>
-  </si>
-  <si>
-    <t>ILLINOIS</t>
   </si>
 </sst>
 </file>
@@ -695,7 +692,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,12 +714,6 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -747,14 +738,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,9 +1086,9 @@
   <dimension ref="A1:IU1235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="G527" sqref="G527"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
@@ -14528,119 +14517,19 @@
       </c>
     </row>
     <row r="519" spans="1:8">
-      <c r="B519" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C519" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D519" s="5">
-        <v>1</v>
-      </c>
-      <c r="E519" s="6">
-        <v>6312658</v>
-      </c>
-      <c r="F519" s="6">
-        <v>6059346</v>
-      </c>
-      <c r="G519" s="6">
-        <v>253312</v>
-      </c>
-      <c r="H519" s="5">
-        <v>4</v>
-      </c>
+      <c r="D519" s="1"/>
     </row>
     <row r="520" spans="1:8">
-      <c r="B520" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C520" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D520" s="5">
-        <v>2</v>
-      </c>
-      <c r="E520" s="6">
-        <v>6336267</v>
-      </c>
-      <c r="F520" s="6">
-        <v>6112782</v>
-      </c>
-      <c r="G520" s="6">
-        <v>223485</v>
-      </c>
-      <c r="H520" s="5">
-        <v>3.5</v>
-      </c>
+      <c r="D520" s="1"/>
     </row>
     <row r="521" spans="1:8">
-      <c r="B521" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C521" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D521" s="5">
-        <v>3</v>
-      </c>
-      <c r="E521" s="6">
-        <v>6267000</v>
-      </c>
-      <c r="F521" s="6">
-        <v>6004341</v>
-      </c>
-      <c r="G521" s="6">
-        <v>262659</v>
-      </c>
-      <c r="H521" s="5">
-        <v>4.2</v>
-      </c>
+      <c r="D521" s="1"/>
     </row>
     <row r="522" spans="1:8">
-      <c r="B522" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C522" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D522" s="5">
-        <v>4</v>
-      </c>
-      <c r="E522" s="6">
-        <v>6090530</v>
-      </c>
-      <c r="F522" s="6">
-        <v>5069529</v>
-      </c>
-      <c r="G522" s="6">
-        <v>1021001</v>
-      </c>
-      <c r="H522" s="5">
-        <v>16.8</v>
-      </c>
+      <c r="D522" s="1"/>
     </row>
     <row r="523" spans="1:8">
-      <c r="B523" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C523" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D523" s="5">
-        <v>5</v>
-      </c>
-      <c r="E523" s="6">
-        <v>6265841</v>
-      </c>
-      <c r="F523" s="6">
-        <v>5345231</v>
-      </c>
-      <c r="G523" s="6">
-        <v>920610</v>
-      </c>
-      <c r="H523" s="5">
-        <v>14.7</v>
-      </c>
+      <c r="D523" s="1"/>
     </row>
     <row r="524" spans="1:8">
       <c r="D524" s="1"/>
